--- a/Saida_Campo.xlsx
+++ b/Saida_Campo.xlsx
@@ -532,21 +532,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -583,21 +583,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -634,21 +634,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -685,21 +685,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -736,21 +736,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -787,21 +787,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -838,21 +838,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -889,21 +889,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -940,21 +940,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -991,21 +991,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1042,21 +1042,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1093,21 +1093,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1195,21 +1195,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1246,21 +1246,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1297,21 +1297,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1348,21 +1348,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1399,21 +1399,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1501,21 +1501,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1552,21 +1552,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1603,21 +1603,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1654,21 +1654,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1705,21 +1705,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1756,21 +1756,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1807,21 +1807,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1858,21 +1858,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1909,21 +1909,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1960,21 +1960,21 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2011,21 +2011,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2062,21 +2062,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2113,21 +2113,21 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2164,21 +2164,21 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2215,21 +2215,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2266,21 +2266,21 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2317,21 +2317,21 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2368,21 +2368,21 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2419,21 +2419,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2470,21 +2470,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2521,21 +2521,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2572,21 +2572,21 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2623,21 +2623,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2674,21 +2674,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2725,21 +2725,21 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2776,21 +2776,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2827,21 +2827,21 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2878,21 +2878,21 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2929,21 +2929,21 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2980,21 +2980,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3031,21 +3031,21 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3082,21 +3082,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3133,21 +3133,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3184,21 +3184,21 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3235,21 +3235,21 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3286,21 +3286,21 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3337,21 +3337,21 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3388,21 +3388,21 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3439,21 +3439,21 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3490,21 +3490,21 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3541,21 +3541,21 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3592,21 +3592,21 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3643,21 +3643,21 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3694,21 +3694,21 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3745,21 +3745,21 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3796,21 +3796,21 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3847,21 +3847,21 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3898,21 +3898,21 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3949,21 +3949,21 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4000,21 +4000,21 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4051,21 +4051,21 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4102,21 +4102,21 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4153,21 +4153,21 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4204,21 +4204,21 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4255,21 +4255,21 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4306,21 +4306,21 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4357,21 +4357,21 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4408,21 +4408,21 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4459,21 +4459,21 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4510,21 +4510,21 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4561,21 +4561,21 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4612,21 +4612,21 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -4663,21 +4663,21 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4714,21 +4714,21 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4765,21 +4765,21 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -4816,21 +4816,21 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -4867,21 +4867,21 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -4918,21 +4918,21 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -4969,21 +4969,21 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5020,21 +5020,21 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5071,21 +5071,21 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5122,21 +5122,21 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Salão do Reino</t>
+          <t>Bel Souza</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Rua do Ballet nº 245</t>
+          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Talismã</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>

--- a/Saida_Campo.xlsx
+++ b/Saida_Campo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,25 +532,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -634,25 +634,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -685,25 +685,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -736,25 +736,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -787,25 +787,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -838,25 +838,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -889,25 +889,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -940,25 +940,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -991,25 +991,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1042,25 +1042,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1093,25 +1093,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1195,25 +1195,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1246,25 +1246,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1297,25 +1297,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1348,25 +1348,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1450,25 +1450,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1501,25 +1501,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1552,25 +1552,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1603,25 +1603,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1654,25 +1654,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1705,25 +1705,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1756,25 +1756,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1807,25 +1807,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1858,25 +1858,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1909,25 +1909,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1960,25 +1960,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2011,25 +2011,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2062,25 +2062,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2113,25 +2113,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2164,25 +2164,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2266,25 +2266,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2317,25 +2317,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2368,25 +2368,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2419,25 +2419,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2470,25 +2470,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2521,25 +2521,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2572,25 +2572,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2623,25 +2623,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2674,25 +2674,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2725,25 +2725,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2761,40 +2761,40 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lais Santos</t>
+          <t>Kewerlin Silva</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>irmã</t>
+          <t>irmão</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>+5534998979890</t>
+          <t>+5534998784593</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2812,40 +2812,40 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Laurindo José</t>
+          <t>Lais Santos</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>estudante</t>
+          <t>irmã</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>+5534998018637</t>
+          <t>+5534998979890</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2863,40 +2863,40 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Leonei Francisco</t>
+          <t>Laurindo José</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>irmão</t>
+          <t>estudante</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+5534998864786</t>
+          <t>+5534998018637</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2914,7 +2914,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lucas Antônio</t>
+          <t>Leonei Francisco</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2924,30 +2924,30 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>+5567981283712</t>
+          <t>+5534998864786</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2965,7 +2965,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Luciano Ferreira</t>
+          <t>Lucas Antônio</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2975,30 +2975,30 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>+5534999979384</t>
+          <t>+5567981283712</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Luciano Freitas</t>
+          <t>Luciano Ferreira</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>+5534991642922</t>
+          <t>+5534999979384</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3067,40 +3067,40 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lucilene Rosa</t>
+          <t>Luciano Freitas</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>irmã</t>
+          <t>irmão</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>+5534997659073</t>
+          <t>+5534991642922</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3118,7 +3118,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Luzia Oliveira</t>
+          <t>Lucilene Rosa</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3128,30 +3128,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>+5534996422030</t>
+          <t>+5534997659073</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3169,7 +3169,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Maria Alcântara</t>
+          <t>Luzia Oliveira</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3179,30 +3179,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>+5534998784600</t>
+          <t>+5534996422030</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Maria Damião</t>
+          <t>Maria Alcântara</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3230,30 +3230,30 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>+5534997903437</t>
+          <t>+5534998784600</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3271,40 +3271,40 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Maria Oliveira</t>
+          <t>Maria Damião</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>estudante</t>
+          <t>irmã</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>+5534984100867</t>
+          <t>+5534997903437</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3322,40 +3322,40 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Marisa Pires</t>
+          <t>Maria Oliveira</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>irmã</t>
+          <t>estudante</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>+5534997714820</t>
+          <t>+5534984100867</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3373,7 +3373,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Neuza Bastos</t>
+          <t>Marisa Pires</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3383,30 +3383,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>+5534991787282</t>
+          <t>+5534997714820</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3424,7 +3424,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Neuza Santos</t>
+          <t>Neuza Bastos</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3434,30 +3434,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>+5534996960200</t>
+          <t>+5534991787282</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3475,7 +3475,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Odelma Miranda</t>
+          <t>Neuza Santos</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3485,30 +3485,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>+5534999235954</t>
+          <t>+5534996960200</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3526,40 +3526,40 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Odiley Duarte</t>
+          <t>Odelma Miranda</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>irmão</t>
+          <t>irmã</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>+5534991885332</t>
+          <t>+5534999235954</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3577,7 +3577,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pascoal Damião</t>
+          <t>Odiley Duarte</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3587,30 +3587,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>+5534997801727</t>
+          <t>+5534991885332</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3628,40 +3628,40 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Rejane Arantes</t>
+          <t>Pascoal Damião</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>irmã</t>
+          <t>irmão</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>+5534991811823</t>
+          <t>+5534997801727</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3679,40 +3679,40 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Rennan Monteiro</t>
+          <t>Rejane Arantes</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>irmão</t>
+          <t>irmã</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>+5534992398807</t>
+          <t>+5534991811823</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3730,7 +3730,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Rian Moraes</t>
+          <t>Rennan Monteiro</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3740,30 +3740,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>+5534993363720</t>
+          <t>+5534992398807</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3781,7 +3781,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Roberto Barreto</t>
+          <t>Rian Moraes</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3791,30 +3791,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>+5555991066436</t>
+          <t>+5534993363720</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Roberto Lira</t>
+          <t>Roberto Barreto</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>+5534996853975</t>
+          <t>+5555991066436</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3883,40 +3883,40 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Rosa Marcelino</t>
+          <t>Roberto Lira</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>irmã</t>
+          <t>irmão</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>+5534999620241</t>
+          <t>+5534996853975</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3934,7 +3934,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rosalina Jesus</t>
+          <t>Rosa Marcelino</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3944,30 +3944,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>+5534992693841</t>
+          <t>+5534999620241</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3985,7 +3985,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Rubia Santos</t>
+          <t>Rosalina Jesus</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3995,30 +3995,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>+5534984441766</t>
+          <t>+5534992693841</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ruthiceli Costa</t>
+          <t>Rubia Santos</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4046,30 +4046,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>+5534999718238</t>
+          <t>+5534984441766</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4087,40 +4087,40 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sabrina Magalhães</t>
+          <t>Ruthiceli Costa</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>estudante</t>
+          <t>irmã</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>+5534999195925</t>
+          <t>+5534999718238</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4138,7 +4138,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Samyrah Oliveira</t>
+          <t>Sabrina Magalhães</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4148,30 +4148,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>+5534997813419</t>
+          <t>+5534999195925</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4189,40 +4189,40 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sarah Oliveira</t>
+          <t>Samyrah Oliveira</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>irmã</t>
+          <t>estudante</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>+5534997665768</t>
+          <t>+5534997813419</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4240,40 +4240,40 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Saulo Arantes</t>
+          <t>Sarah Oliveira</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>irmão</t>
+          <t>irmã</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>+5534991300030</t>
+          <t>+5534997665768</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4291,7 +4291,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sebastião Damião</t>
+          <t>Saulo Arantes</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4301,30 +4301,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>+5534999005671</t>
+          <t>+5534991300030</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4342,7 +4342,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sebastião Junior</t>
+          <t>Sebastião Damião</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4352,30 +4352,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>+5534998645404</t>
+          <t>+5534999005671</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4393,7 +4393,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sebastião Tavares</t>
+          <t>Sebastião Junior</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4403,30 +4403,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>+5534996812321</t>
+          <t>+5534998645404</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4444,40 +4444,40 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Selira Oliveira</t>
+          <t>Sebastião Tavares</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>irmã</t>
+          <t>irmão</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>+5534998784600</t>
+          <t>+5534996812321</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4495,7 +4495,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Shirley Barbosa</t>
+          <t>Selira Oliveira</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4505,30 +4505,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>+5534974009594</t>
+          <t>+5534998784600</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4546,7 +4546,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Shirley Jesus</t>
+          <t>Shirley Barbosa</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4556,30 +4556,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>+5534998138187</t>
+          <t>+5534974009594</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4597,40 +4597,40 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Silas Bastos</t>
+          <t>Shirley Jesus</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>irmão</t>
+          <t>irmã</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>+5534984418614</t>
+          <t>+5534998138187</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4648,7 +4648,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Simonides Alcântara</t>
+          <t>Silas Bastos</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>+5534999837666</t>
+          <t>+5534984418614</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4699,7 +4699,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sinomar Marcelino</t>
+          <t>Simonides Alcântara</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4709,30 +4709,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>+5534999627541</t>
+          <t>+5534999837666</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4750,40 +4750,40 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sthefany Martins</t>
+          <t>Sinomar Marcelino</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>estudante</t>
+          <t>irmão</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>+5534996713315</t>
+          <t>+5534999627541</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4801,40 +4801,40 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Taise Rocha</t>
+          <t>Sthefany Martins</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>irmã</t>
+          <t>estudante</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>+5571984484764</t>
+          <t>+5534996713315</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4852,7 +4852,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Tania Alcântara</t>
+          <t>Taise Rocha</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4862,30 +4862,30 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>+5534988025833</t>
+          <t>+5571984484764</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4903,7 +4903,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Tereza de Paula</t>
+          <t>Tania Alcântara</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4913,30 +4913,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>+5511987841732</t>
+          <t>+5534988025833</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4954,7 +4954,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Thais Soares</t>
+          <t>Tereza de Paula</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4964,30 +4964,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>+5538998113585</t>
+          <t>+5511987841732</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5005,40 +5005,40 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Valdeci Costa</t>
+          <t>Thais Soares</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>irmão</t>
+          <t>irmã</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>+5534996449822</t>
+          <t>+5538998113585</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5056,7 +5056,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Valdemir Oliveira</t>
+          <t>Valdeci Costa</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5066,30 +5066,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>+5534996383090</t>
+          <t>+5534996449822</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5107,40 +5107,40 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Vanda Cruz</t>
+          <t>Valdemir Oliveira</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>irmã</t>
+          <t>irmão</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>+5534984038078</t>
+          <t>+5534996383090</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Bel Souza</t>
+          <t>Salão do Reino</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Maria Borges Bielert nº 219 </t>
+          <t>Rua do Ballet nº 245</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Talismã</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45753</v>
+        <v>45755</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5155,6 +5155,57 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Vanda Cruz</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>irmã</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>+5534984038078</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Salão do Reino</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Rua do Ballet nº 245</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Convites Celebração</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Saida_Campo.xlsx
+++ b/Saida_Campo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd49839d27a64021/Área de Trabalho/layout/Serviço de Campo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_68B8B3F49A5DDADEE5632CF74A5986F8862394EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9488D441-56EB-4AB9-867F-807144A63D06}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_68B8B3F49A5DDADEE5632CF74A5986F8862394EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD63C8D9-A686-4DFE-AF3F-A8F4D571977B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="192">
   <si>
     <t>Perfil</t>
   </si>
@@ -182,15 +182,9 @@
     <t>Kewerlin Silva</t>
   </si>
   <si>
-    <t>34 99878-4593</t>
-  </si>
-  <si>
     <t>Lais Santos</t>
   </si>
   <si>
-    <t>34 99801-8637</t>
-  </si>
-  <si>
     <t>Luciano Ferreira</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
     <t>Saulo Arantes</t>
   </si>
   <si>
-    <t>34 99900-5671</t>
-  </si>
-  <si>
     <t>Selira Oliveira</t>
   </si>
   <si>
@@ -305,9 +296,6 @@
     <t>Divina Magalhaes</t>
   </si>
   <si>
-    <t>Emily Silva</t>
-  </si>
-  <si>
     <t>Fatima Lira</t>
   </si>
   <si>
@@ -323,9 +311,6 @@
     <t>Laurindo Jose</t>
   </si>
   <si>
-    <t>Leonei Silva</t>
-  </si>
-  <si>
     <t>Lucas Antonio</t>
   </si>
   <si>
@@ -335,9 +320,6 @@
     <t>Maria Damiao</t>
   </si>
   <si>
-    <t>Odelma Silva</t>
-  </si>
-  <si>
     <t>Pascoal Damiao</t>
   </si>
   <si>
@@ -404,9 +386,6 @@
     <t>Estudante</t>
   </si>
   <si>
-    <t>34 99971-7733</t>
-  </si>
-  <si>
     <t>(34) 98810-5088</t>
   </si>
   <si>
@@ -425,9 +404,6 @@
     <t>(34) 98426-1767</t>
   </si>
   <si>
-    <t>34 99690-5503</t>
-  </si>
-  <si>
     <t>(34) 99685-7630</t>
   </si>
   <si>
@@ -440,9 +416,6 @@
     <t>(34) 99672-6509</t>
   </si>
   <si>
-    <t>34 98831-4662</t>
-  </si>
-  <si>
     <t>(34) 99337-7458</t>
   </si>
   <si>
@@ -488,18 +461,12 @@
     <t>(34) 99897-9890</t>
   </si>
   <si>
-    <t>34 99886-4786</t>
-  </si>
-  <si>
     <t>(67) 98128-3712</t>
   </si>
   <si>
     <t>(34) 99997-9384</t>
   </si>
   <si>
-    <t>34 99164-2922</t>
-  </si>
-  <si>
     <t>(34) 99865-9073</t>
   </si>
   <si>
@@ -512,9 +479,6 @@
     <t>(34) 99696-0200</t>
   </si>
   <si>
-    <t>34 99923-5954</t>
-  </si>
-  <si>
     <t>(34) 99188-5332</t>
   </si>
   <si>
@@ -524,9 +488,6 @@
     <t>(34) 99181-1823</t>
   </si>
   <si>
-    <t>(34)99239-8807</t>
-  </si>
-  <si>
     <t>(34) 99336-3720</t>
   </si>
   <si>
@@ -545,9 +506,6 @@
     <t>(34) 99234-5613</t>
   </si>
   <si>
-    <t>34 99781-3419</t>
-  </si>
-  <si>
     <t>(34) 99130-0030</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>(34) 99681-2321</t>
   </si>
   <si>
-    <t>34 99878-4600</t>
-  </si>
-  <si>
-    <t>34 97400-9594</t>
-  </si>
-  <si>
     <t>(34) 99813-8187</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>(38) 99811-3585</t>
   </si>
   <si>
-    <t>34 99638-3090</t>
-  </si>
-  <si>
     <t>Mateus 24:14</t>
   </si>
   <si>
@@ -599,19 +548,67 @@
     <t>Irmão</t>
   </si>
   <si>
+    <t>(11) 99903-4025</t>
+  </si>
+  <si>
+    <t>(11) 98784-1732</t>
+  </si>
+  <si>
+    <t>(34) 99644-9822</t>
+  </si>
+  <si>
+    <t>Vanda Cruz</t>
+  </si>
+  <si>
     <t>Salao do Reino</t>
   </si>
   <si>
     <t>Rua do Ballet nº 245</t>
   </si>
   <si>
-    <t>(11) 99903-4025</t>
-  </si>
-  <si>
-    <t>(11) 98784-1732</t>
-  </si>
-  <si>
-    <t>(34) 99644-9822</t>
+    <t>Emily Miranda</t>
+  </si>
+  <si>
+    <t>(34) 99690-5503</t>
+  </si>
+  <si>
+    <t>(34) 98831-4662</t>
+  </si>
+  <si>
+    <t>(34) 99878-4593</t>
+  </si>
+  <si>
+    <t>(34) 99801-8637</t>
+  </si>
+  <si>
+    <t>Leonei Francisco</t>
+  </si>
+  <si>
+    <t>(34) 99886-4786</t>
+  </si>
+  <si>
+    <t>(34) 99164-2922</t>
+  </si>
+  <si>
+    <t>Odelma Miranda</t>
+  </si>
+  <si>
+    <t>(34) 99239-8807</t>
+  </si>
+  <si>
+    <t>(34) 99781-3419</t>
+  </si>
+  <si>
+    <t>(34) 99900-5671</t>
+  </si>
+  <si>
+    <t>(34) 97400-9594</t>
+  </si>
+  <si>
+    <t>(34) 99638-3090</t>
+  </si>
+  <si>
+    <t>(34) 98403-8078</t>
   </si>
 </sst>
 </file>
@@ -1021,11 +1018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1100,28 +1097,28 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H2" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1129,57 +1126,57 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H3" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H4" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1187,28 +1184,28 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H5" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1216,86 +1213,86 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H6" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H7" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H8" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1303,28 +1300,28 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H9" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1332,28 +1329,28 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H10" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1361,57 +1358,57 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H11" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H12" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1419,57 +1416,57 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H13" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H14" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1477,28 +1474,28 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H15" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1506,86 +1503,86 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H16" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H17" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H18" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1593,28 +1590,28 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H19" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1622,28 +1619,28 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H20" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1651,28 +1648,28 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H21" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1680,86 +1677,86 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H22" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H23" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H24" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1767,28 +1764,28 @@
         <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H25" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1796,28 +1793,28 @@
         <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H26" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1825,28 +1822,28 @@
         <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H27" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1854,28 +1851,28 @@
         <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H28" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1883,28 +1880,28 @@
         <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H29" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1912,28 +1909,28 @@
         <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H30" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1941,57 +1938,57 @@
         <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H31" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H32" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1999,28 +1996,28 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H33" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2028,28 +2025,28 @@
         <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H34" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2057,28 +2054,28 @@
         <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H35" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2086,28 +2083,28 @@
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H36" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2115,28 +2112,28 @@
         <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H37" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2144,28 +2141,28 @@
         <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H38" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2173,86 +2170,86 @@
         <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H39" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H40" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H41" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2260,28 +2257,28 @@
         <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H42" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2289,28 +2286,28 @@
         <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H43" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2318,28 +2315,28 @@
         <v>47</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H44" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2347,637 +2344,637 @@
         <v>48</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H45" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H46" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H47" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H48" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H49" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H50" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H51" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H52" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H53" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H54" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H55" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H56" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H57" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H58" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H59" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H60" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H61" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H62" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H63" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H64" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H65" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H66" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2985,695 +2982,724 @@
         <v>14</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H67" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H68" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H69" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H70" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H71" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H72" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H73" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H74" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H75" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H76" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H77" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H78" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H79" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H80" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H81" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H82" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H83" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G84" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H84" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G85" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H85" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H86" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H87" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H88" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H89" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="6">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="H90" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="6">
+        <v>45764</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Saida_Campo.xlsx
+++ b/Saida_Campo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd49839d27a64021/Área de Trabalho/layout/Serviço de Campo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_68B8B3F49A5DDADEE5632CF74A5986F8862394EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD63C8D9-A686-4DFE-AF3F-A8F4D571977B}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_68B8B3F49A5DDADEE5632CF74A5986F8862394EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{752C33D5-837A-47EC-ABD6-A79D825D880D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="193">
   <si>
     <t>Perfil</t>
   </si>
@@ -560,12 +560,6 @@
     <t>Vanda Cruz</t>
   </si>
   <si>
-    <t>Salao do Reino</t>
-  </si>
-  <si>
-    <t>Rua do Ballet nº 245</t>
-  </si>
-  <si>
     <t>Emily Miranda</t>
   </si>
   <si>
@@ -609,6 +603,15 @@
   </si>
   <si>
     <t>(34) 98403-8078</t>
+  </si>
+  <si>
+    <t>Rua Manoel Gonzaga nº 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tocantins </t>
+  </si>
+  <si>
+    <t>Rua da Rancheira nº 276</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1024,8 @@
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1030,9 +1033,9 @@
     <col min="1" max="1" width="24.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -1103,19 +1106,19 @@
         <v>102</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G2" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H2" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>167</v>
@@ -1132,19 +1135,19 @@
         <v>104</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H3" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>167</v>
@@ -1161,19 +1164,19 @@
         <v>105</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H4" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>167</v>
@@ -1190,19 +1193,19 @@
         <v>106</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G5" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H5" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>167</v>
@@ -1219,19 +1222,19 @@
         <v>107</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G6" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H6" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>167</v>
@@ -1248,19 +1251,19 @@
         <v>108</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H7" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>167</v>
@@ -1277,19 +1280,19 @@
         <v>109</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H8" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>167</v>
@@ -1306,19 +1309,19 @@
         <v>110</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G9" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H9" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>167</v>
@@ -1335,19 +1338,19 @@
         <v>111</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H10" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>167</v>
@@ -1364,19 +1367,19 @@
         <v>112</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H11" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>167</v>
@@ -1393,19 +1396,19 @@
         <v>113</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H12" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>167</v>
@@ -1422,19 +1425,19 @@
         <v>114</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G13" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H13" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>167</v>
@@ -1451,19 +1454,19 @@
         <v>115</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G14" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H14" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>167</v>
@@ -1480,19 +1483,19 @@
         <v>120</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G15" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H15" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>167</v>
@@ -1509,19 +1512,19 @@
         <v>117</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H16" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>167</v>
@@ -1538,19 +1541,19 @@
         <v>118</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G17" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H17" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>167</v>
@@ -1567,19 +1570,19 @@
         <v>119</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H18" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>167</v>
@@ -1596,19 +1599,19 @@
         <v>120</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G19" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H19" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>167</v>
@@ -1625,19 +1628,19 @@
         <v>107</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H20" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>167</v>
@@ -1654,19 +1657,19 @@
         <v>121</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H21" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>167</v>
@@ -1683,19 +1686,19 @@
         <v>122</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G22" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H22" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>167</v>
@@ -1703,28 +1706,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H23" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>167</v>
@@ -1741,19 +1744,19 @@
         <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H24" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>167</v>
@@ -1770,19 +1773,19 @@
         <v>124</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H25" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>167</v>
@@ -1799,19 +1802,19 @@
         <v>125</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H26" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>167</v>
@@ -1828,19 +1831,19 @@
         <v>126</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H27" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>167</v>
@@ -1854,22 +1857,22 @@
         <v>116</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H28" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>167</v>
@@ -1886,19 +1889,19 @@
         <v>127</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H29" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>167</v>
@@ -1915,19 +1918,19 @@
         <v>128</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H30" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>167</v>
@@ -1944,19 +1947,19 @@
         <v>129</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H31" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>167</v>
@@ -1973,19 +1976,19 @@
         <v>130</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H32" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>167</v>
@@ -2002,19 +2005,19 @@
         <v>131</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H33" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>167</v>
@@ -2031,19 +2034,19 @@
         <v>132</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G34" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H34" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
@@ -2060,19 +2063,19 @@
         <v>133</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H35" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>167</v>
@@ -2089,19 +2092,19 @@
         <v>134</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H36" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>167</v>
@@ -2118,19 +2121,19 @@
         <v>135</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G37" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H37" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>167</v>
@@ -2147,19 +2150,19 @@
         <v>136</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H38" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>167</v>
@@ -2176,19 +2179,19 @@
         <v>137</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H39" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>167</v>
@@ -2205,19 +2208,19 @@
         <v>171</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H40" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>167</v>
@@ -2234,19 +2237,19 @@
         <v>138</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H41" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>167</v>
@@ -2263,19 +2266,19 @@
         <v>139</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H42" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>167</v>
@@ -2292,19 +2295,19 @@
         <v>136</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H43" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>167</v>
@@ -2321,19 +2324,19 @@
         <v>140</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G44" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H44" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>167</v>
@@ -2347,22 +2350,22 @@
         <v>170</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H45" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>167</v>
@@ -2379,19 +2382,19 @@
         <v>141</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H46" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>167</v>
@@ -2405,22 +2408,22 @@
         <v>116</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H47" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>167</v>
@@ -2428,28 +2431,28 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H48" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>167</v>
@@ -2466,19 +2469,19 @@
         <v>142</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H49" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>167</v>
@@ -2495,19 +2498,19 @@
         <v>143</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H50" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>167</v>
@@ -2521,22 +2524,22 @@
         <v>170</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H51" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>167</v>
@@ -2553,19 +2556,19 @@
         <v>144</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G52" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H52" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>167</v>
@@ -2582,19 +2585,19 @@
         <v>131</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H53" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>167</v>
@@ -2611,19 +2614,19 @@
         <v>145</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G54" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H54" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>167</v>
@@ -2640,19 +2643,19 @@
         <v>146</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G55" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H55" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>167</v>
@@ -2669,19 +2672,19 @@
         <v>137</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H56" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>167</v>
@@ -2698,19 +2701,19 @@
         <v>105</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H57" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>167</v>
@@ -2727,19 +2730,19 @@
         <v>168</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H58" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>167</v>
@@ -2756,19 +2759,19 @@
         <v>147</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H59" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>167</v>
@@ -2776,7 +2779,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>169</v>
@@ -2785,19 +2788,19 @@
         <v>129</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H60" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>167</v>
@@ -2814,19 +2817,19 @@
         <v>148</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G61" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H61" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>167</v>
@@ -2843,19 +2846,19 @@
         <v>149</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G62" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H62" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>167</v>
@@ -2872,19 +2875,19 @@
         <v>150</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H63" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>167</v>
@@ -2898,22 +2901,22 @@
         <v>170</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H64" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>167</v>
@@ -2930,19 +2933,19 @@
         <v>151</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H65" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>167</v>
@@ -2959,19 +2962,19 @@
         <v>152</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G66" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H66" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>167</v>
@@ -2988,19 +2991,19 @@
         <v>103</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H67" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>167</v>
@@ -3017,19 +3020,19 @@
         <v>153</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H68" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>167</v>
@@ -3046,19 +3049,19 @@
         <v>107</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G69" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H69" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>167</v>
@@ -3075,19 +3078,19 @@
         <v>154</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H70" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>167</v>
@@ -3104,19 +3107,19 @@
         <v>155</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H71" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>167</v>
@@ -3133,19 +3136,19 @@
         <v>156</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H72" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>167</v>
@@ -3159,22 +3162,22 @@
         <v>116</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G73" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H73" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>167</v>
@@ -3191,19 +3194,19 @@
         <v>157</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H74" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>167</v>
@@ -3217,22 +3220,22 @@
         <v>170</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G75" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H75" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>167</v>
@@ -3249,19 +3252,19 @@
         <v>158</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H76" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>167</v>
@@ -3278,19 +3281,19 @@
         <v>159</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H77" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>167</v>
@@ -3307,19 +3310,19 @@
         <v>145</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G78" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H78" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>167</v>
@@ -3333,22 +3336,22 @@
         <v>169</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G79" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H79" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>167</v>
@@ -3365,19 +3368,19 @@
         <v>160</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H80" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>167</v>
@@ -3394,19 +3397,19 @@
         <v>161</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H81" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>167</v>
@@ -3423,19 +3426,19 @@
         <v>162</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H82" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>167</v>
@@ -3449,22 +3452,22 @@
         <v>170</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H83" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>167</v>
@@ -3481,19 +3484,19 @@
         <v>163</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G84" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H84" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>167</v>
@@ -3510,19 +3513,19 @@
         <v>164</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G85" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H85" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>167</v>
@@ -3539,19 +3542,19 @@
         <v>165</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H86" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>167</v>
@@ -3568,19 +3571,19 @@
         <v>172</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H87" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>167</v>
@@ -3597,19 +3600,19 @@
         <v>166</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H88" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>167</v>
@@ -3626,19 +3629,19 @@
         <v>173</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H89" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>167</v>
@@ -3652,22 +3655,22 @@
         <v>170</v>
       </c>
       <c r="C90" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="F90" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G90" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H90" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>167</v>
@@ -3681,22 +3684,22 @@
         <v>169</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="6">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="H91" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>167</v>

--- a/Saida_Campo.xlsx
+++ b/Saida_Campo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd49839d27a64021/Área de Trabalho/layout/Serviço de Campo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_68B8B3F49A5DDADEE5632CF74A5986F8862394EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{752C33D5-837A-47EC-ABD6-A79D825D880D}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_68B8B3F49A5DDADEE5632CF74A5986F8862394EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF6DBA9A-8D54-436C-A545-46DAB05B3F06}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="192">
   <si>
     <t>Perfil</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Ana Silva</t>
   </si>
   <si>
-    <t>Anizio Arruda</t>
-  </si>
-  <si>
     <t>Bel Souza</t>
   </si>
   <si>
@@ -275,15 +272,6 @@
     <t>Valdemir Oliveira</t>
   </si>
   <si>
-    <t>America Ferreira</t>
-  </si>
-  <si>
-    <t>Antonio Marcelino</t>
-  </si>
-  <si>
-    <t>Antonio Rosa</t>
-  </si>
-  <si>
     <t>Celio Oliveira</t>
   </si>
   <si>
@@ -311,9 +299,6 @@
     <t>Laurindo Jose</t>
   </si>
   <si>
-    <t>Lucas Antonio</t>
-  </si>
-  <si>
     <t>Maria Alcantara</t>
   </si>
   <si>
@@ -605,13 +590,25 @@
     <t>(34) 98403-8078</t>
   </si>
   <si>
-    <t>Rua Manoel Gonzaga nº 86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tocantins </t>
-  </si>
-  <si>
-    <t>Rua da Rancheira nº 276</t>
+    <t>Rua do Ballet nº 245</t>
+  </si>
+  <si>
+    <t>Antônio Rosa</t>
+  </si>
+  <si>
+    <t>Salão do Reino</t>
+  </si>
+  <si>
+    <t>Lucas Antônio</t>
+  </si>
+  <si>
+    <t>América Ferreira</t>
+  </si>
+  <si>
+    <t>Anízio Arruda</t>
+  </si>
+  <si>
+    <t>Antônio Marcelino</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1021,8 @@
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L76" sqref="L76"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1100,28 +1097,28 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G2" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H2" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1129,57 +1126,57 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H3" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H4" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1187,1797 +1184,1797 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G5" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H5" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G6" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H6" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H7" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H8" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G9" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H9" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H10" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H11" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H12" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G13" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H13" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G14" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H14" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G15" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H15" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H16" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G17" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H17" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H18" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G19" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H19" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H20" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H21" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G22" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H22" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H23" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H24" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H25" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H26" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H27" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H28" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H29" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H30" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H31" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H32" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H33" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G34" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H34" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H35" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H36" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G37" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H37" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H38" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H39" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H40" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H41" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H42" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H43" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G44" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H44" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H45" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H46" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H47" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H48" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H49" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H50" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H51" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G52" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H52" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H53" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G54" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H54" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G55" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H55" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H56" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H57" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H58" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H59" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H60" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G61" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H61" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G62" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H62" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H63" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H64" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H65" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G66" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H66" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2985,724 +2982,724 @@
         <v>14</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H67" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H68" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G69" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H69" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H70" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H71" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H72" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G73" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H73" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H74" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G75" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H75" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H76" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H77" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G78" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H78" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G79" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H79" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H80" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H81" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H82" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H83" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G84" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H84" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G85" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H85" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H86" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H87" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H88" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H89" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G90" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H90" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="6">
-        <v>45767</v>
+        <v>45769</v>
       </c>
       <c r="H91" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
